--- a/webScrapping/espn_scrapper/IPL/Royal Challengers Bangalore/Chris Morris.xlsx
+++ b/webScrapping/espn_scrapper/IPL/Royal Challengers Bangalore/Chris Morris.xlsx
@@ -439,29 +439,29 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v xml:space="preserve"> Oct 25 2020</v>
+        <v xml:space="preserve"> Nov 2 2020</v>
       </c>
       <c r="B2" t="str">
-        <v xml:space="preserve"> Dubai (DSC)</v>
+        <v xml:space="preserve"> Abu Dhabi</v>
       </c>
       <c r="C2" t="str">
-        <v>Super Kings won by 8 wickets (with 8 balls remaining)</v>
+        <v>Capitals won by 6 wickets (with 6 balls remaining)</v>
       </c>
       <c r="D2" t="str">
         <v>Royal Challengers Bangalore</v>
       </c>
       <c r="E2" t="str">
-        <v>Chennai Super Kings</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="F2" t="str">
         <v>Chris Morris</v>
       </c>
       <c r="G2" t="str">
+        <v>0</v>
+      </c>
+      <c r="H2" t="str">
         <v>2</v>
       </c>
-      <c r="H2" t="str">
-        <v>5</v>
-      </c>
       <c r="I2" t="str">
         <v>0</v>
       </c>
@@ -469,103 +469,103 @@
         <v>0</v>
       </c>
       <c r="K2" t="str">
-        <v>40.00</v>
+        <v>0.00</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve"> Oct 28 2020</v>
+        <v xml:space="preserve"> Oct 31 2020</v>
       </c>
       <c r="B3" t="str">
-        <v xml:space="preserve"> Abu Dhabi</v>
+        <v xml:space="preserve"> Sharjah</v>
       </c>
       <c r="C3" t="str">
-        <v>Mumbai won by 5 wickets (with 5 balls remaining)</v>
+        <v>Sunrisers won by 5 wickets (with 35 balls remaining)</v>
       </c>
       <c r="D3" t="str">
         <v>Royal Challengers Bangalore</v>
       </c>
       <c r="E3" t="str">
-        <v>Mumbai Indians</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="F3" t="str">
         <v>Chris Morris</v>
       </c>
       <c r="G3" t="str">
+        <v>3</v>
+      </c>
+      <c r="H3" t="str">
         <v>4</v>
       </c>
-      <c r="H3" t="str">
-        <v>2</v>
-      </c>
       <c r="I3" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="str">
         <v>0</v>
       </c>
       <c r="K3" t="str">
-        <v>200.00</v>
+        <v>75.00</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v xml:space="preserve"> Nov 2 2020</v>
+        <v xml:space="preserve"> Oct 15 2020</v>
       </c>
       <c r="B4" t="str">
-        <v xml:space="preserve"> Abu Dhabi</v>
+        <v xml:space="preserve"> Sharjah</v>
       </c>
       <c r="C4" t="str">
-        <v>Capitals won by 6 wickets (with 6 balls remaining)</v>
+        <v>Kings XI won by 8 wickets</v>
       </c>
       <c r="D4" t="str">
         <v>Royal Challengers Bangalore</v>
       </c>
       <c r="E4" t="str">
-        <v>Delhi Capitals</v>
+        <v>Kings XI Punjab</v>
       </c>
       <c r="F4" t="str">
         <v>Chris Morris</v>
       </c>
       <c r="G4" t="str">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H4" t="str">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K4" t="str">
-        <v>0.00</v>
+        <v>312.50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v xml:space="preserve"> Oct 31 2020</v>
+        <v xml:space="preserve"> Oct 25 2020</v>
       </c>
       <c r="B5" t="str">
-        <v xml:space="preserve"> Sharjah</v>
+        <v xml:space="preserve"> Dubai (DSC)</v>
       </c>
       <c r="C5" t="str">
-        <v>Sunrisers won by 5 wickets (with 35 balls remaining)</v>
+        <v>Super Kings won by 8 wickets (with 8 balls remaining)</v>
       </c>
       <c r="D5" t="str">
         <v>Royal Challengers Bangalore</v>
       </c>
       <c r="E5" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="F5" t="str">
         <v>Chris Morris</v>
       </c>
       <c r="G5" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I5" t="str">
         <v>0</v>
@@ -574,42 +574,42 @@
         <v>0</v>
       </c>
       <c r="K5" t="str">
-        <v>75.00</v>
+        <v>40.00</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v xml:space="preserve"> Oct 15 2020</v>
+        <v xml:space="preserve"> Oct 28 2020</v>
       </c>
       <c r="B6" t="str">
-        <v xml:space="preserve"> Sharjah</v>
+        <v xml:space="preserve"> Abu Dhabi</v>
       </c>
       <c r="C6" t="str">
-        <v>Kings XI won by 8 wickets</v>
+        <v>Mumbai won by 5 wickets (with 5 balls remaining)</v>
       </c>
       <c r="D6" t="str">
         <v>Royal Challengers Bangalore</v>
       </c>
       <c r="E6" t="str">
-        <v>Kings XI Punjab</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="F6" t="str">
         <v>Chris Morris</v>
       </c>
       <c r="G6" t="str">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="H6" t="str">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I6" t="str">
         <v>1</v>
       </c>
       <c r="J6" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K6" t="str">
-        <v>312.50</v>
+        <v>200.00</v>
       </c>
     </row>
   </sheetData>
